--- a/medicine/Enfance/Anique_Poitras/Anique_Poitras.xlsx
+++ b/medicine/Enfance/Anique_Poitras/Anique_Poitras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anique Poitras est une écrivaine québécoise née le 22 mai 1961 à L'Épiphanie (Québec) et décédée le 19 décembre 2016 à Québec.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anique Poitras est née à L'Épiphanie[1]. À l’âge de 13 ans, elle déménage à Montréal avec ses parents[1]. À l'adolescence, elle est passionnée par la lecture et l'écriture[1]. Après ses études collégiales, ne sachant trop ce qu'elle veut faire dans la vie, elle décide de prendre une année sabbatique, qui dure finalement sept ans[1].
-À 26 ans, elle commence des études littéraires à l'Université du Québec à Montréal dans le but de devenir écrivaine[1]. À 30 ans, à la fin de son parcours à l'université, elle décroche une bourse du Conseil des Arts du Canada[1]. De plus, un éditeur s'intéresse à son projet de roman pour adolescents, La Lumière blanche. Cette histoire se poursuivra ensuite dans La Deuxième Vie et La Chambre d'Éden (tomes I et II).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anique Poitras est née à L'Épiphanie. À l’âge de 13 ans, elle déménage à Montréal avec ses parents. À l'adolescence, elle est passionnée par la lecture et l'écriture. Après ses études collégiales, ne sachant trop ce qu'elle veut faire dans la vie, elle décide de prendre une année sabbatique, qui dure finalement sept ans.
+À 26 ans, elle commence des études littéraires à l'Université du Québec à Montréal dans le but de devenir écrivaine. À 30 ans, à la fin de son parcours à l'université, elle décroche une bourse du Conseil des Arts du Canada. De plus, un éditeur s'intéresse à son projet de roman pour adolescents, La Lumière blanche. Cette histoire se poursuivra ensuite dans La Deuxième Vie et La Chambre d'Éden (tomes I et II).
 À l’été 1998, Anique Poitras s'établit à Québec et consacre sa vie à sa famille et à son travail d'écrivaine. Elle a également 
-Elle meurt d'un cancer le 19 décembre 2016[2].
+Elle meurt d'un cancer le 19 décembre 2016.
 </t>
         </is>
       </c>
@@ -547,65 +561,208 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Anique et le village fabuleux (mini-romans et albums)
-2000 : Lancelot, le dragon
+          <t>Série Anique et le village fabuleux (mini-romans et albums)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2000 : Lancelot, le dragon
 2002 : Isidor Suzor
 2003 : Marie Louve-Garou
 2004 : La Dame et la Licorne
 2006 : Hasarius-Lapupuce
 2006 : Irène la sirène (album - illustrations de Céline Malépart
-2007 : Ludovix, le phénix (album illustrations de Céline Malépart)
-Série Sara
-La Lumière blanche, Québec Amérique, coll. « Titan », 1993, 223 p.  (ISBN 2890376591, 2890376842 et 9782764412909)
+2007 : Ludovix, le phénix (album illustrations de Céline Malépart)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anique_Poitras</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anique_Poitras</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Sara</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Lumière blanche, Québec Amérique, coll. « Titan », 1993, 223 p.  (ISBN 2890376591, 2890376842 et 9782764412909)
 La Deuxième Vie, Québec Amérique, coll. « Titan », 1994, 158 p.  (ISBN 2890376826 et 9782890376823)
 La Chambre d'Éden, Québec Amérique, coll. « Titan », 1998
 Tome 1, 208 p.  (ISBN 9782890378339)
 Tome 2, 192 p.  (ISBN 9782890378520)
-Le Roman de Sara, Québec Amérique, coll. « Tous Continents », 2000, 400 p. (ISBN 2764400705 et 9782764400708)
-Série Mandoline
-2003 : La Chute du corbeau
+Le Roman de Sara, Québec Amérique, coll. « Tous Continents », 2000, 400 p. (ISBN 2764400705 et 9782764400708)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anique_Poitras</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anique_Poitras</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Mandoline</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2003 : La Chute du corbeau
 2004 : L'Empreinte de la corneille
-2005 : Sauve-moi comme tu m'aimes
-Romans jeunesse
-2001 : Gaston-le-Grognon
-2002 : Lysista et le château / Myro et le château
-Albums jeunesse
-2005 : La Fée des bonbons (illustrations de Marie Lafrance)
+2005 : Sauve-moi comme tu m'aimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anique_Poitras</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anique_Poitras</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2001 : Gaston-le-Grognon
+2002 : Lysista et le château / Myro et le château</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anique_Poitras</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anique_Poitras</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2005 : La Fée des bonbons (illustrations de Marie Lafrance)
 2006 : Cendrillon (illustrations de Gabrielle Grimard)
 2007 : Le Marchand de câlins (illustrations de Marie-Claude Favreau)
 2009 : La Petite Maison au grand cœur (illustrations de Ninon Pelletier)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Anique_Poitras</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anique_Poitras</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1990 : Mention au prix Alphonse-Piché pour « Phrases découpées trouvées dans une valise entre le rêve et la voie ferrée », dans la revue Écrits des Forges, vol. 30[3]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1990 : Mention au prix Alphonse-Piché pour « Phrases découpées trouvées dans une valise entre le rêve et la voie ferrée », dans la revue Écrits des Forges, vol. 30
 1991 : Bourse du programme Explorations du Conseil des Arts du Canada pour La Lumière blanche
-1992 : Mention au prix Alphonse-Piché pour « Tableau d'elles et Rigole Désir » dans Poèmes du lendemain, dans la revue Écrits des Forges[3]
+1992 : Mention au prix Alphonse-Piché pour « Tableau d'elles et Rigole Désir » dans Poèmes du lendemain, dans la revue Écrits des Forges
 1993 : Prix Livromanie pour la trilogie de Sara
 1994 : Prix Livromanie pour la trilogie de Sara
 1995 : Prix Livromanie, première position ex æquo au palmarès des clubs de lecture de Communications-Jeunesse pour La Lumière blanche
@@ -621,7 +778,7 @@
 2004 : invitée d’honneur au Salon international du livre de Québec
 2004 : Sceau d’argent au prix Christie pour La Chute du corbeau
 2004 : prix du Salon international du livre de Québec, catégorie jeunesse, pour La Chute du corbeau
-2004 : Prix Chronos Vacances (France) pour Isidor Suzor[4]
+2004 : Prix Chronos Vacances (France) pour Isidor Suzor
 2005 : La lumière blanche, titre parmi Les 100 livres les plus aimés des lecteurs de l’Actualité
 2006 : Prix des abonnés des bibliothèques de Québec avec Sauve-moi comme tu m’aimes, (catégorie Adulte)
 2007 : Palmarès Livromagie pour La Fée des bonbons</t>
